--- a/luke_wip/Template.xlsx
+++ b/luke_wip/Template.xlsx
@@ -5,18 +5,22 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\luke\SwimifyHandler\luke_wip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\luke\SwimifyHandler\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3E0A38-5859-45C8-BC87-8D51DDC009B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927DC08F-2207-4259-9402-5EC1DDE60E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27435" yWindow="3480" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empty" sheetId="4" r:id="rId1"/>
-    <sheet name="50m" sheetId="5" r:id="rId2"/>
-    <sheet name="100m" sheetId="6" r:id="rId3"/>
-    <sheet name="200m" sheetId="7" r:id="rId4"/>
+    <sheet name="25m" sheetId="11" r:id="rId2"/>
+    <sheet name="50m" sheetId="5" r:id="rId3"/>
+    <sheet name="100m" sheetId="6" r:id="rId4"/>
+    <sheet name="200m" sheetId="7" r:id="rId5"/>
+    <sheet name="400m" sheetId="8" r:id="rId6"/>
+    <sheet name="800m" sheetId="9" r:id="rId7"/>
+    <sheet name="1500m" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
   <si>
     <t>slut-tid</t>
   </si>
@@ -48,15 +52,6 @@
     <t>Tävlingsschema</t>
   </si>
   <si>
-    <t>SK Poseidon</t>
-  </si>
-  <si>
-    <t>Poseidon Team Cup</t>
-  </si>
-  <si>
-    <t>30 Augusti - 1 September (2024)</t>
-  </si>
-  <si>
     <t>$event$</t>
   </si>
   <si>
@@ -106,6 +101,96 @@
   </si>
   <si>
     <t>frekvens 35-45m</t>
+  </si>
+  <si>
+    <t>5. 50m</t>
+  </si>
+  <si>
+    <t>10. 50m</t>
+  </si>
+  <si>
+    <t>6. 50m</t>
+  </si>
+  <si>
+    <t>7. 50m</t>
+  </si>
+  <si>
+    <t>8. 50m</t>
+  </si>
+  <si>
+    <t>9. 50m</t>
+  </si>
+  <si>
+    <t>11. 50m</t>
+  </si>
+  <si>
+    <t>12. 50m</t>
+  </si>
+  <si>
+    <t>13. 50m</t>
+  </si>
+  <si>
+    <t>14. 50m</t>
+  </si>
+  <si>
+    <t>15. 50m</t>
+  </si>
+  <si>
+    <t>16. 50m</t>
+  </si>
+  <si>
+    <t>1. 25m</t>
+  </si>
+  <si>
+    <t>17. 50m</t>
+  </si>
+  <si>
+    <t>18. 50m</t>
+  </si>
+  <si>
+    <t>19. 50m</t>
+  </si>
+  <si>
+    <t>20. 50m</t>
+  </si>
+  <si>
+    <t>21. 50m</t>
+  </si>
+  <si>
+    <t>22. 50m</t>
+  </si>
+  <si>
+    <t>23. 50m</t>
+  </si>
+  <si>
+    <t>24. 50m</t>
+  </si>
+  <si>
+    <t>25. 50m</t>
+  </si>
+  <si>
+    <t>26. 50m</t>
+  </si>
+  <si>
+    <t>27. 50m</t>
+  </si>
+  <si>
+    <t>28. 50m</t>
+  </si>
+  <si>
+    <t>29. 50m</t>
+  </si>
+  <si>
+    <t>30. 50m</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>Swedish Swim Games 2024 - GP</t>
+  </si>
+  <si>
+    <t>20 September - 22 September (2024)</t>
   </si>
 </sst>
 </file>
@@ -524,10 +609,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -942,65 +1027,66 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="29"/>
+    <col min="1" max="8" width="9.625" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="A1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="9.9499999999999993" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="9.9499999999999993" customHeight="1">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1017,11 +1103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0908E2-138E-4E2B-903F-6A8AC635D76F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB965E0-7BEE-4501-B7F4-BE32C71BF8BA}">
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1035,34 +1121,34 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -1075,19 +1161,19 @@
     <row r="4" spans="1:8" ht="36" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>0</v>
@@ -1096,7 +1182,7 @@
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="14"/>
@@ -1137,18 +1223,6 @@
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="36" customHeight="1"/>
-    <row r="11" spans="1:8" ht="36" customHeight="1"/>
-    <row r="12" spans="1:8" ht="36" customHeight="1"/>
-    <row r="13" spans="1:8" ht="36" customHeight="1"/>
-    <row r="14" spans="1:8" ht="36" customHeight="1"/>
-    <row r="15" spans="1:8" ht="36" customHeight="1"/>
-    <row r="16" spans="1:8" ht="36" customHeight="1"/>
-    <row r="17" ht="36" customHeight="1"/>
-    <row r="18" ht="36" customHeight="1"/>
-    <row r="19" ht="36" customHeight="1"/>
-    <row r="20" ht="36" customHeight="1"/>
-    <row r="21" ht="36" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1156,11 +1230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1A2F7B-8CAA-422F-9A29-95EA4DAD8CCD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0908E2-138E-4E2B-903F-6A8AC635D76F}">
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1174,34 +1248,34 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -1214,19 +1288,19 @@
     <row r="4" spans="1:8" ht="36" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>0</v>
@@ -1235,82 +1309,59 @@
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="9" customHeight="1"/>
+    <row r="6" spans="1:8" ht="9" customHeight="1"/>
+    <row r="7" spans="1:8" ht="18" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+    </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1"/>
-    <row r="12" spans="1:8" ht="36" customHeight="1"/>
-    <row r="13" spans="1:8" ht="36" customHeight="1"/>
-    <row r="14" spans="1:8" ht="36" customHeight="1"/>
-    <row r="15" spans="1:8" ht="36" customHeight="1"/>
-    <row r="16" spans="1:8" ht="36" customHeight="1"/>
-    <row r="17" ht="36" customHeight="1"/>
-    <row r="18" ht="36" customHeight="1"/>
-    <row r="19" ht="36" customHeight="1"/>
-    <row r="20" ht="36" customHeight="1"/>
-    <row r="21" ht="36" customHeight="1"/>
-    <row r="22" ht="36" customHeight="1"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394A3B2C-3024-44D3-BF6A-3F4279E7F853}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1A2F7B-8CAA-422F-9A29-95EA4DAD8CCD}">
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1324,34 +1375,34 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -1364,19 +1415,157 @@
     <row r="4" spans="1:8" ht="36" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="9" customHeight="1"/>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394A3B2C-3024-44D3-BF6A-3F4279E7F853}">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="7" width="9.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.625" style="1" customWidth="1"/>
+    <col min="20" max="23" width="10.625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="9" customHeight="1"/>
+    <row r="4" spans="1:8" ht="36" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>0</v>
@@ -1462,18 +1651,1203 @@
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="36" customHeight="1"/>
-    <row r="14" spans="1:8" ht="36" customHeight="1"/>
-    <row r="15" spans="1:8" ht="36" customHeight="1"/>
-    <row r="16" spans="1:8" ht="36" customHeight="1"/>
-    <row r="17" ht="36" customHeight="1"/>
-    <row r="18" ht="36" customHeight="1"/>
-    <row r="19" ht="36" customHeight="1"/>
-    <row r="20" ht="36" customHeight="1"/>
-    <row r="21" ht="36" customHeight="1"/>
-    <row r="22" ht="36" customHeight="1"/>
-    <row r="23" ht="36" customHeight="1"/>
-    <row r="24" ht="36" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B71A937-E5C0-4E0D-A132-3B229F2F7A7B}">
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="7" width="9.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.625" style="1" customWidth="1"/>
+    <col min="20" max="23" width="10.625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="9" customHeight="1"/>
+    <row r="4" spans="1:23" ht="36" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:23" ht="36" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:23" ht="36" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="25"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="25"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="25"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="25"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="25"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="25"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" customFormat="1" ht="9" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A43102-E64B-4A1B-B802-53C904565E43}">
+  <dimension ref="A1:W24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="7" width="9.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.625" style="1" customWidth="1"/>
+    <col min="20" max="23" width="10.625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="9" customHeight="1"/>
+    <row r="4" spans="1:23" ht="36" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:23" ht="36" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:23" ht="36" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:23" ht="36" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" ht="36" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" ht="36" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:23" ht="36" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:23" ht="36" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:23" ht="36" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" ht="36" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:23" ht="36" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="25"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="25"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="25"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="25"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="25"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="25"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" customFormat="1" ht="9" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C0F73C-1FF2-41CB-91C1-CBBCDB3326E9}">
+  <dimension ref="A1:W38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="7" width="9.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.625" style="1" customWidth="1"/>
+    <col min="20" max="23" width="10.625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="9" customHeight="1"/>
+    <row r="4" spans="1:8" ht="36" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" ht="36" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" ht="36" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="36" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="36" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="36" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" ht="36" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:23" ht="36" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:23" ht="36" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:23" ht="36" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:23" ht="36" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:23" ht="36" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:23" ht="36" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:23" ht="36" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:23" ht="36" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:23" ht="36" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:23" ht="36" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:23" ht="36" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:23" ht="36" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="25"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="25"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="25"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="25"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="25"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" customFormat="1" ht="36" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="25"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" customFormat="1" ht="9" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/luke_wip/Template.xlsx
+++ b/luke_wip/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\luke\SwimifyHandler\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\luke\SwimifyHandler\luke_wip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927DC08F-2207-4259-9402-5EC1DDE60E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FD3D75-E5C6-40C3-BF6B-DA1F2094B563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32460" yWindow="2280" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empty" sheetId="4" r:id="rId1"/>
@@ -184,13 +184,13 @@
     <t>30. 50m</t>
   </si>
   <si>
-    <t>HS</t>
-  </si>
-  <si>
-    <t>Swedish Swim Games 2024 - GP</t>
-  </si>
-  <si>
-    <t>20 September - 22 September (2024)</t>
+    <t>CLUB</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/luke_wip/Template.xlsx
+++ b/luke_wip/Template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\luke\SwimifyHandler\luke_wip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FD3D75-E5C6-40C3-BF6B-DA1F2094B563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FCC56-1E44-4FEE-82C5-6EA187123BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32460" yWindow="2280" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31080" yWindow="3660" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Empty" sheetId="4" r:id="rId1"/>
+    <sheet name="Template" sheetId="4" r:id="rId1"/>
     <sheet name="25m" sheetId="11" r:id="rId2"/>
     <sheet name="50m" sheetId="5" r:id="rId3"/>
     <sheet name="100m" sheetId="6" r:id="rId4"/>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
